--- a/all_tables.xlsx
+++ b/all_tables.xlsx
@@ -25,18 +25,18 @@
     <t>country_name</t>
   </si>
   <si>
+    <t>Россия</t>
+  </si>
+  <si>
+    <t>США</t>
+  </si>
+  <si>
+    <t>Германия</t>
+  </si>
+  <si>
     <t>Япония</t>
   </si>
   <si>
-    <t>США</t>
-  </si>
-  <si>
-    <t>Россия</t>
-  </si>
-  <si>
-    <t>Германия</t>
-  </si>
-  <si>
     <t>Китай</t>
   </si>
   <si>
@@ -46,15 +46,15 @@
     <t>customer_name</t>
   </si>
   <si>
+    <t>Третий Скупщик Александрович</t>
+  </si>
+  <si>
     <t>Сидоров Скупщ ик Валерьевич</t>
   </si>
   <si>
     <t>Иванов Покупатель Покупателевич</t>
   </si>
   <si>
-    <t>Третий Скупщик Александрович</t>
-  </si>
-  <si>
     <t>discounts</t>
   </si>
   <si>
@@ -169,10 +169,10 @@
     <t>sellers_name</t>
   </si>
   <si>
+    <t>Продажный Егор Никитич</t>
+  </si>
+  <si>
     <t>Главный Тест Александрович</t>
-  </si>
-  <si>
-    <t>Продажный Егор Никитич</t>
   </si>
   <si>
     <t>sells</t>
@@ -718,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>23</v>
@@ -798,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>31</v>
@@ -818,7 +818,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>33</v>
@@ -858,7 +858,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>37</v>
@@ -878,7 +878,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>39</v>
@@ -898,7 +898,7 @@
         <v>10</v>
       </c>
       <c r="B32" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>41</v>
@@ -949,10 +949,10 @@
         <v>44081.79010416667</v>
       </c>
       <c r="D36" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" s="2">
         <v>0</v>
@@ -969,10 +969,10 @@
         <v>44078.54053240741</v>
       </c>
       <c r="D37" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="2">
         <v>0</v>
@@ -989,10 +989,10 @@
         <v>44080.91587962963</v>
       </c>
       <c r="D38" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E38" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" s="2">
         <v>1</v>
